--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
@@ -264,7 +264,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -303,10 +303,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -336,7 +332,7 @@
     <t>Who recorded this assertion about the Participant? This can support understanding the differences between self-report, doctor, trained research staff.</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4B/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1116,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1124,10 +1120,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1150,16 +1146,16 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1209,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
@@ -1224,15 +1220,15 @@
         <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1255,13 +1251,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1312,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -1324,10 +1320,10 @@
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-entity-asserter.xlsx
+++ b/StructureDefinition-entity-asserter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
